--- a/data/taxa_per_stage_genus_raw.xlsx
+++ b/data/taxa_per_stage_genus_raw.xlsx
@@ -365,17 +365,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>mean_dif</t>
+          <t>mean_div</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>min_dif</t>
+          <t>min_div</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>max_dif</t>
+          <t>max_div</t>
         </is>
       </c>
     </row>

--- a/data/taxa_per_stage_genus_raw.xlsx
+++ b/data/taxa_per_stage_genus_raw.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,411 +378,542 @@
           <t>max_div</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="B2">
-        <v>78.78</v>
+        <v>157.34</v>
       </c>
       <c r="C2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="D2">
-        <v>81</v>
+        <v>161</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pleistocene</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2.58</v>
+        <v>5.333</v>
       </c>
       <c r="B3">
-        <v>157.34</v>
+        <v>161.25</v>
       </c>
       <c r="C3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D3">
-        <v>161</v>
+        <v>170</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pliocene</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>5.333</v>
+        <v>11.63</v>
       </c>
       <c r="B4">
-        <v>161.25</v>
+        <v>187.56</v>
       </c>
       <c r="C4">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D4">
-        <v>170</v>
+        <v>194</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tortonian</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>11.63</v>
+        <v>13.82</v>
       </c>
       <c r="B5">
-        <v>187.56</v>
+        <v>202.15</v>
       </c>
       <c r="C5">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D5">
-        <v>194</v>
+        <v>211</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Serravallian</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>13.82</v>
+        <v>15.97</v>
       </c>
       <c r="B6">
-        <v>202.15</v>
+        <v>222.88</v>
       </c>
       <c r="C6">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="D6">
-        <v>211</v>
+        <v>228</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Langhian</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>15.97</v>
+        <v>20.44</v>
       </c>
       <c r="B7">
-        <v>222.88</v>
+        <v>230.1</v>
       </c>
       <c r="C7">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D7">
-        <v>228</v>
+        <v>236</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Burdigalian</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>20.44</v>
+        <v>23.03</v>
       </c>
       <c r="B8">
-        <v>230.1</v>
+        <v>193.24</v>
       </c>
       <c r="C8">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="D8">
-        <v>236</v>
+        <v>203</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aquitanian</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>23.03</v>
+        <v>27.82</v>
       </c>
       <c r="B9">
-        <v>193.24</v>
+        <v>171.25</v>
       </c>
       <c r="C9">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D9">
-        <v>203</v>
+        <v>175</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Chattian</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>27.82</v>
+        <v>33.9</v>
       </c>
       <c r="B10">
-        <v>171.25</v>
+        <v>158.89</v>
       </c>
       <c r="C10">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D10">
-        <v>175</v>
+        <v>163</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Rupelian</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>33.9</v>
+        <v>37.71</v>
       </c>
       <c r="B11">
-        <v>158.89</v>
+        <v>203.91</v>
       </c>
       <c r="C11">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="D11">
-        <v>163</v>
+        <v>208</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Priabonian</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>37.71</v>
+        <v>41.2</v>
       </c>
       <c r="B12">
-        <v>203.91</v>
+        <v>234.85</v>
       </c>
       <c r="C12">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D12">
-        <v>208</v>
+        <v>245</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Bartonian</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>41.2</v>
+        <v>47.8</v>
       </c>
       <c r="B13">
-        <v>234.85</v>
+        <v>246.41</v>
       </c>
       <c r="C13">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="D13">
-        <v>245</v>
+        <v>254</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lutetian</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>47.8</v>
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>246.41</v>
+        <v>269.54</v>
       </c>
       <c r="C14">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="D14">
-        <v>254</v>
+        <v>274</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Ypresian</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>56</v>
+        <v>59.2</v>
       </c>
       <c r="B15">
-        <v>269.54</v>
+        <v>184.66</v>
       </c>
       <c r="C15">
-        <v>265</v>
+        <v>180</v>
       </c>
       <c r="D15">
-        <v>274</v>
+        <v>189</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Thanetian</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>59.2</v>
+        <v>61.6</v>
       </c>
       <c r="B16">
-        <v>184.66</v>
+        <v>111.42</v>
       </c>
       <c r="C16">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="D16">
-        <v>189</v>
+        <v>118</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Selandian</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>61.6</v>
+        <v>66</v>
       </c>
       <c r="B17">
-        <v>111.42</v>
+        <v>149.31</v>
       </c>
       <c r="C17">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D17">
-        <v>118</v>
+        <v>155</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Danian</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>66</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="B18">
-        <v>149.31</v>
+        <v>220.44</v>
       </c>
       <c r="C18">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="D18">
-        <v>155</v>
+        <v>226</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Maastrichtian</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>72.09999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="B19">
-        <v>220.44</v>
+        <v>239.18</v>
       </c>
       <c r="C19">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="D19">
-        <v>226</v>
+        <v>240</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Campanian</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>83.59999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="B20">
-        <v>239.18</v>
+        <v>152.63</v>
       </c>
       <c r="C20">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c r="D20">
-        <v>240</v>
+        <v>157</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Santonian</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>86.3</v>
+        <v>89.8</v>
       </c>
       <c r="B21">
-        <v>152.63</v>
+        <v>104.2</v>
       </c>
       <c r="C21">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="D21">
-        <v>157</v>
+        <v>108</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Coniacian</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>89.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="B22">
-        <v>104.2</v>
+        <v>137.78</v>
       </c>
       <c r="C22">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="D22">
-        <v>108</v>
+        <v>140</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Turonian</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>93.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="B23">
-        <v>137.78</v>
+        <v>180.35</v>
       </c>
       <c r="C23">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="D23">
-        <v>140</v>
+        <v>181</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cenomanian</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>100.5</v>
+        <v>113</v>
       </c>
       <c r="B24">
-        <v>180.35</v>
+        <v>92</v>
       </c>
       <c r="C24">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="D24">
-        <v>181</v>
+        <v>92</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Albian</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>39.21</v>
       </c>
       <c r="C25">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>92</v>
+        <v>43</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Aptian</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>125</v>
+        <v>129.4</v>
       </c>
       <c r="B26">
-        <v>39.21</v>
+        <v>22.32</v>
       </c>
       <c r="C26">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Barremian</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>129.4</v>
+        <v>132.6</v>
       </c>
       <c r="B27">
-        <v>22.32</v>
+        <v>15.25</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Hauterivian</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>132.6</v>
+        <v>139.8</v>
       </c>
       <c r="B28">
-        <v>15.25</v>
+        <v>31.18</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Valanginian</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>139.8</v>
+        <v>145</v>
       </c>
       <c r="B29">
-        <v>31.18</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>145</v>
-      </c>
-      <c r="B30">
         <v>2</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Berriasian</t>
+        </is>
       </c>
     </row>
   </sheetData>
